--- a/AAII_Financials/Quarterly/LVBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVBX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>LVBX</t>
   </si>
@@ -1292,8 +1292,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1327,8 +1327,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -1537,8 +1537,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -1607,8 +1607,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -1785,23 +1785,23 @@
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2987,8 +2987,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -3663,7 +3663,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
